--- a/statistics/HistoricalDistanceData/historical_distance/Q957459-en.xlsx
+++ b/statistics/HistoricalDistanceData/historical_distance/Q957459-en.xlsx
@@ -31,175 +31,181 @@
     <t>uri</t>
   </si>
   <si>
+    <t>Coronavirus: Miami's Ultra Music Festival Postponed Until 2021</t>
+  </si>
+  <si>
+    <t>Ultra Worldwide Expands: UMF Australia is Coming in 2018</t>
+  </si>
+  <si>
+    <t>Exclusive: Ultra Music, Ultra Music Festival Announce 'Global Alliance'</t>
+  </si>
+  <si>
+    <t>2008: 11th Edition</t>
+  </si>
+  <si>
+    <t>Cities prepare for traffic during Ultra Music Festival, Miami Beach centennial concert | Miami Herald</t>
+  </si>
+  <si>
+    <t>Armin van Buuren Debuts GAIA At Ultra Music Festival (with live set)</t>
+  </si>
+  <si>
+    <t>Ultra Announces Ultra Music Festival 2015 Dates</t>
+  </si>
+  <si>
+    <t>Ultra Music Festival announces amazing line-up</t>
+  </si>
+  <si>
+    <t>Ultra Announces Festivals in Japan and South Africa for 2014</t>
+  </si>
+  <si>
+    <t>Ultra Music Festival Miami</t>
+  </si>
+  <si>
+    <t>Ultra Singapore to take place on Sept 10 and 11, venue and line-up yet to be announced</t>
+  </si>
+  <si>
+    <t>Miami might bring Ultra back to downtown in upcoming vote</t>
+  </si>
+  <si>
+    <t>Ultra’s March fest canceled in Miami amid coronavirus fears</t>
+  </si>
+  <si>
+    <t>150,000 Fans Descend on Miami for Ultra Music Festival</t>
+  </si>
+  <si>
+    <t>Ultra music festival brings techno to Miami</t>
+  </si>
+  <si>
     <t>How Miami's Ultra Music Festival became a worldwide phenomenon</t>
   </si>
   <si>
+    <t>Ultra Music Festival 8 rolls the WMC into Bicentennial Park</t>
+  </si>
+  <si>
+    <t>Ultra Music Festival announces Phase 2 of 2017 lineup</t>
+  </si>
+  <si>
+    <t>Armin van Buuren wins 4 awards including ‘Best Male Artist in the World’</t>
+  </si>
+  <si>
+    <t>ULTRA MUSIC FESTIVAL ANNOUNCES EXCLUSIVE FLASH SALE!</t>
+  </si>
+  <si>
+    <t>Miami Commission rejects contract for Ultra Music Festival</t>
+  </si>
+  <si>
+    <t>Ultra Music Festival 2016 GA Tickets Are Sold Out</t>
+  </si>
+  <si>
+    <t>The 15 Things You Didn't Know About Ultra Music Festival</t>
+  </si>
+  <si>
+    <t>Miami's Ultra Music Festival sets record attendance</t>
+  </si>
+  <si>
+    <t>ULTRA MUSIC FESTIVAL 2013 Concludes with Most Successful Year Yet - 330,000 Fans and 10,000,000+ Online Views</t>
+  </si>
+  <si>
+    <t>Rapture Festival threatens to sue Ultra over Miami venue</t>
+  </si>
+  <si>
+    <t>Latin Music Stars Shine at Ultra Music Festival 2018</t>
+  </si>
+  <si>
+    <t>The Ultra Music Festival will be broadcast live on Twitch</t>
+  </si>
+  <si>
+    <t>Miami commissioners will decide future of Ultra in downtown</t>
+  </si>
+  <si>
+    <t>Security guard seriously injured after crowd storms fence at...</t>
+  </si>
+  <si>
+    <t>Ultra Music Festival 2019 Was Confusing &amp; Spectacular In Every Way [Review]</t>
+  </si>
+  <si>
+    <t>Ultra Music Festival in Miami will move to Virginia Key</t>
+  </si>
+  <si>
+    <t>Deadmau5 to Fill In For The Prodigy After the Group's Cancellation of Their Ultra Music Festival Set</t>
+  </si>
+  <si>
+    <t>WMC Ultra Music Festival 2005 Lineup</t>
+  </si>
+  <si>
+    <t>Brickell homeowners sue Miami over Ultra Music Festival</t>
+  </si>
+  <si>
+    <t>ULTRA MUSIC FESTIVAL: THE BRAVERY, ERIC PRYDZ, JUNKIE XL, UNION JACK WITH FIRST PERFORMANCE IN SEVEN YEARS, VJv2 AND THE VEEZ</t>
+  </si>
+  <si>
+    <t>Ultra organizers vow to avoid opening night's 'nightmarish'...</t>
+  </si>
+  <si>
+    <t>Could Miami’s Ultra music festival be so loud it’s bad for fish? | Miami Herald</t>
+  </si>
+  <si>
+    <t>Miami Ultra Music Festival at the Winter Music Conference (WMC) 2008</t>
+  </si>
+  <si>
+    <t>ULTRA MUSIC FESTIVAL CELEBRATES ITS 10-YEAR ANNIVERSARY WITH ALL-STAR ELECTRONIC ARTIST LINE UP</t>
+  </si>
+  <si>
+    <t>10 Things You Didn't Know About the Ultra Music Festival</t>
+  </si>
+  <si>
+    <t>Deadmau5 Trolls Martin Garrix, Plays 'Animals' Mashup</t>
+  </si>
+  <si>
+    <t>Ultra Miami Not Offering Refunds for 2020… Here’s What You Get Instead</t>
+  </si>
+  <si>
+    <t>Ultra Music Festival officially SOLD OUT!</t>
+  </si>
+  <si>
+    <t>The Ultra Music Festival transportation guide</t>
+  </si>
+  <si>
+    <t>The 33rd annual International Dance Music Awards (IDMA) announces nominees</t>
+  </si>
+  <si>
+    <t>Florida declares public health emergency after two coronavirus cases</t>
+  </si>
+  <si>
+    <t>Ultra Music Festival: Smashing Records And Global Expansion</t>
+  </si>
+  <si>
+    <t>2005 Miami WMC Perspectives : Carl Cox</t>
+  </si>
+  <si>
+    <t>Ultra Music Festival takes over Miami</t>
+  </si>
+  <si>
     <t>Ultra Music Festival India Officially Heading to New Delhi and Mumbai</t>
   </si>
   <si>
-    <t>Ultra Singapore to take place on Sept 10 and 11, venue and line-up yet to be announced</t>
-  </si>
-  <si>
-    <t>The 15 Things You Didn't Know About Ultra Music Festival</t>
-  </si>
-  <si>
-    <t>Deadmau5 Trolls Martin Garrix, Plays 'Animals' Mashup</t>
-  </si>
-  <si>
-    <t>Ultra Worldwide Expands: UMF Australia is Coming in 2018</t>
+    <t>Ultra Music Festival Is Not Offering Refunds for ‘Postponed’ Event</t>
+  </si>
+  <si>
+    <t>ULTRA WORLDWIDE Announces ‘ULTRA EUROPE’ July 12-14, 2013 in Croatia</t>
+  </si>
+  <si>
+    <t>Ultra Music Festival Announces 2015 Aftermovie, 2016 Ticket Options</t>
+  </si>
+  <si>
+    <t>Ultra Worldwide takes over South America</t>
+  </si>
+  <si>
+    <t>Ultra co-founder, Miami nightlife fixture Alex Omes dies at 43 | Miami Herald</t>
   </si>
   <si>
     <t>Festicket Awards 2016 Winners: Tomorrowland, Martin Garrix, Radiohead and More</t>
   </si>
   <si>
-    <t>Armin van Buuren wins 4 awards including ‘Best Male Artist in the World’</t>
-  </si>
-  <si>
-    <t>150,000 Fans Descend on Miami for Ultra Music Festival</t>
-  </si>
-  <si>
-    <t>Miami might bring Ultra back to downtown in upcoming vote</t>
-  </si>
-  <si>
-    <t>The Ultra Music Festival transportation guide</t>
-  </si>
-  <si>
-    <t>Ultra Music Festival 8 rolls the WMC into Bicentennial Park</t>
-  </si>
-  <si>
-    <t>Miami's Ultra Music Festival sets record attendance</t>
-  </si>
-  <si>
-    <t>Deadmau5 to Fill In For The Prodigy After the Group's Cancellation of Their Ultra Music Festival Set</t>
-  </si>
-  <si>
-    <t>Ultra music festival brings techno to Miami</t>
-  </si>
-  <si>
-    <t>ULTRA MUSIC FESTIVAL: THE BRAVERY, ERIC PRYDZ, JUNKIE XL, UNION JACK WITH FIRST PERFORMANCE IN SEVEN YEARS, VJv2 AND THE VEEZ</t>
-  </si>
-  <si>
-    <t>Ultra Music Festival Miami</t>
-  </si>
-  <si>
-    <t>Rapture Festival threatens to sue Ultra over Miami venue</t>
-  </si>
-  <si>
-    <t>Ultra Music Festival takes over Miami</t>
-  </si>
-  <si>
-    <t>Ultra Music Festival Announces 2015 Aftermovie, 2016 Ticket Options</t>
-  </si>
-  <si>
-    <t>Ultra Music Festival in Miami will move to Virginia Key</t>
-  </si>
-  <si>
-    <t>Ultra Music Festival 2019 Was Confusing &amp; Spectacular In Every Way [Review]</t>
-  </si>
-  <si>
-    <t>Brickell homeowners sue Miami over Ultra Music Festival</t>
-  </si>
-  <si>
-    <t>ULTRA MUSIC FESTIVAL CELEBRATES ITS 10-YEAR ANNIVERSARY WITH ALL-STAR ELECTRONIC ARTIST LINE UP</t>
-  </si>
-  <si>
-    <t>The Ultra Music Festival will be broadcast live on Twitch</t>
-  </si>
-  <si>
-    <t>Ultra Music Festival 2016 GA Tickets Are Sold Out</t>
-  </si>
-  <si>
-    <t>Latin Music Stars Shine at Ultra Music Festival 2018</t>
-  </si>
-  <si>
-    <t>Ultra Music Festival Is Not Offering Refunds for ‘Postponed’ Event</t>
-  </si>
-  <si>
-    <t>Miami Commission rejects contract for Ultra Music Festival</t>
-  </si>
-  <si>
-    <t>Coronavirus: Miami's Ultra Music Festival Postponed Until 2021</t>
-  </si>
-  <si>
-    <t>Ultra Music Festival officially SOLD OUT!</t>
-  </si>
-  <si>
-    <t>Exclusive: Ultra Music, Ultra Music Festival Announce 'Global Alliance'</t>
-  </si>
-  <si>
-    <t>Miami Ultra Music Festival at the Winter Music Conference (WMC) 2008</t>
-  </si>
-  <si>
-    <t>2008: 11th Edition</t>
-  </si>
-  <si>
-    <t>Cities prepare for traffic during Ultra Music Festival, Miami Beach centennial concert | Miami Herald</t>
-  </si>
-  <si>
-    <t>10 Things You Didn't Know About the Ultra Music Festival</t>
-  </si>
-  <si>
-    <t>ULTRA WORLDWIDE Announces ‘ULTRA EUROPE’ July 12-14, 2013 in Croatia</t>
-  </si>
-  <si>
-    <t>The 33rd annual International Dance Music Awards (IDMA) announces nominees</t>
-  </si>
-  <si>
-    <t>Ultra’s March fest canceled in Miami amid coronavirus fears</t>
-  </si>
-  <si>
-    <t>Ultra Music Festival: Smashing Records And Global Expansion</t>
-  </si>
-  <si>
-    <t>Ultra co-founder, Miami nightlife fixture Alex Omes dies at 43 | Miami Herald</t>
-  </si>
-  <si>
-    <t>Florida declares public health emergency after two coronavirus cases</t>
-  </si>
-  <si>
-    <t>2005 Miami WMC Perspectives : Carl Cox</t>
-  </si>
-  <si>
-    <t>WMC Ultra Music Festival 2005 Lineup</t>
-  </si>
-  <si>
-    <t>ULTRA MUSIC FESTIVAL 2013 Concludes with Most Successful Year Yet - 330,000 Fans and 10,000,000+ Online Views</t>
-  </si>
-  <si>
-    <t>Ultra Announces Ultra Music Festival 2015 Dates</t>
-  </si>
-  <si>
-    <t>Armin van Buuren Debuts GAIA At Ultra Music Festival (with live set)</t>
-  </si>
-  <si>
-    <t>Ultra Music Festival announces Phase 2 of 2017 lineup</t>
-  </si>
-  <si>
-    <t>Ultra Announces Festivals in Japan and South Africa for 2014</t>
-  </si>
-  <si>
-    <t>Ultra Worldwide takes over South America</t>
-  </si>
-  <si>
-    <t>Miami commissioners will decide future of Ultra in downtown</t>
-  </si>
-  <si>
-    <t>Ultra Music Festival announces amazing line-up</t>
-  </si>
-  <si>
-    <t>Ultra organizers vow to avoid opening night's 'nightmarish'...</t>
-  </si>
-  <si>
-    <t>Could Miami’s Ultra music festival be so loud it’s bad for fish? | Miami Herald</t>
-  </si>
-  <si>
-    <t>Security guard seriously injured after crowd storms fence at...</t>
-  </si>
-  <si>
-    <t>Ultra Miami Not Offering Refunds for 2020… Here’s What You Get Instead</t>
-  </si>
-  <si>
-    <t>ULTRA MUSIC FESTIVAL ANNOUNCES EXCLUSIVE FLASH SALE!</t>
+    <t>The A State of Trance 500 line-up is now complete!</t>
+  </si>
+  <si>
+    <t>ULTRA Music Festival Announces Relocation to Virginia Key as New Home</t>
   </si>
   <si>
     <t>VJ Cozer - Creator Entertainment</t>
@@ -211,183 +217,177 @@
     <t>WMC · Winter Music Conference</t>
   </si>
   <si>
-    <t>The A State of Trance 500 line-up is now complete!</t>
-  </si>
-  <si>
     <t>Ultra Music Festival</t>
   </si>
   <si>
-    <t>ULTRA Music Festival Announces Relocation to Virginia Key as New Home</t>
+    <t>2020-03-04T15:58:39UTC</t>
+  </si>
+  <si>
+    <t>2017-03-26T17:13:35UTC</t>
+  </si>
+  <si>
+    <t>2012-08-10T09:00:00UTC</t>
+  </si>
+  <si>
+    <t>2008-11-06T00:00:00UTC</t>
+  </si>
+  <si>
+    <t>2015-03-25T00:00:00UTC</t>
+  </si>
+  <si>
+    <t>2014-03-31T04:03:28UTC</t>
+  </si>
+  <si>
+    <t>2014-03-31T13:27:23UTC</t>
+  </si>
+  <si>
+    <t>2004-01-29T08:32:02UTC</t>
+  </si>
+  <si>
+    <t>2013-10-25T13:41:43UTC</t>
+  </si>
+  <si>
+    <t>2015-06-04T23:37:25UTC</t>
+  </si>
+  <si>
+    <t>2016-01-14T00:00:00UTC</t>
+  </si>
+  <si>
+    <t>2019-06-19T05:30:00UTC</t>
+  </si>
+  <si>
+    <t>2020-03-04T11:07:00UTC</t>
+  </si>
+  <si>
+    <t>2011-04-01T21:51:44UTC</t>
+  </si>
+  <si>
+    <t>2011-02-08T00:00:00UTC</t>
   </si>
   <si>
     <t>2015-03-07T00:00:00UTC</t>
   </si>
   <si>
+    <t>2006-01-31T07:02:35UTC</t>
+  </si>
+  <si>
+    <t>2017-02-09T08:29:02UTC</t>
+  </si>
+  <si>
+    <t>2018-03-22T12:16:49UTC</t>
+  </si>
+  <si>
+    <t>2016-03-05T00:00:00UTC</t>
+  </si>
+  <si>
+    <t>2018-09-27T16:54:00UTC</t>
+  </si>
+  <si>
+    <t>2016-01-12T00:00:00UTC</t>
+  </si>
+  <si>
+    <t>2013-03-14T20:02:56UTC</t>
+  </si>
+  <si>
+    <t>2011-04-04T00:00:00UTC</t>
+  </si>
+  <si>
+    <t>2013-03-27T00:00:00UTC</t>
+  </si>
+  <si>
+    <t>2019-01-09T19:39:00UTC</t>
+  </si>
+  <si>
+    <t>2018-03-27T14:08:57UTC</t>
+  </si>
+  <si>
+    <t>2015-03-23T12:05:07UTC</t>
+  </si>
+  <si>
+    <t>2018-09-12T19:46:00UTC</t>
+  </si>
+  <si>
+    <t>2015-11-27T00:00:00UTC</t>
+  </si>
+  <si>
+    <t>2019-04-04T21:00:55UTC</t>
+  </si>
+  <si>
+    <t>2018-11-15T19:08:00UTC</t>
+  </si>
+  <si>
+    <t>2016-03-19T00:00:00UTC</t>
+  </si>
+  <si>
+    <t>2005-03-16T00:00:00UTC</t>
+  </si>
+  <si>
+    <t>2019-03-07T13:38:00UTC</t>
+  </si>
+  <si>
+    <t>2008-02-15T00:00:00UTC</t>
+  </si>
+  <si>
+    <t>2019-03-30T00:00:00UTC</t>
+  </si>
+  <si>
+    <t>2018-11-21T17:59:00UTC</t>
+  </si>
+  <si>
+    <t>2007-12-26T00:00:00UTC</t>
+  </si>
+  <si>
+    <t>2008-02-01T00:00:00UTC</t>
+  </si>
+  <si>
+    <t>2014-03-26T14:53:41UTC</t>
+  </si>
+  <si>
+    <t>2014-03-30T11:40:10UTC</t>
+  </si>
+  <si>
+    <t>2020-03-10T17:04:38UTC</t>
+  </si>
+  <si>
+    <t>2016-01-25T08:00:21UTC</t>
+  </si>
+  <si>
+    <t>2019-02-26T05:14:33UTC</t>
+  </si>
+  <si>
+    <t>2020-03-02T04:11:01UTC</t>
+  </si>
+  <si>
+    <t>2013-04-13T00:00:00UTC</t>
+  </si>
+  <si>
+    <t>2005-04-07T20:25:00UTC</t>
+  </si>
+  <si>
+    <t>2012-03-22T00:00:00UTC</t>
+  </si>
+  <si>
     <t>2017-03-24T23:45:52UTC</t>
   </si>
   <si>
-    <t>2016-01-14T00:00:00UTC</t>
-  </si>
-  <si>
-    <t>2013-03-14T20:02:56UTC</t>
-  </si>
-  <si>
-    <t>2014-03-30T11:40:10UTC</t>
-  </si>
-  <si>
-    <t>2017-03-26T17:13:35UTC</t>
+    <t>2020-03-10T20:16:04UTC</t>
+  </si>
+  <si>
+    <t>2012-11-28T00:00:00UTC</t>
+  </si>
+  <si>
+    <t>2015-10-01T00:00:00UTC</t>
+  </si>
+  <si>
+    <t>2014-09-07T00:00:00UTC</t>
+  </si>
+  <si>
+    <t>2015-01-13T07:00:00UTC</t>
   </si>
   <si>
     <t>2016-12-30T09:00:00UTC</t>
   </si>
   <si>
-    <t>2018-03-22T12:16:49UTC</t>
-  </si>
-  <si>
-    <t>2011-04-01T21:51:44UTC</t>
-  </si>
-  <si>
-    <t>2019-06-19T05:30:00UTC</t>
-  </si>
-  <si>
-    <t>2006-01-31T07:02:35UTC</t>
-  </si>
-  <si>
-    <t>2011-04-04T00:00:00UTC</t>
-  </si>
-  <si>
-    <t>2016-03-19T00:00:00UTC</t>
-  </si>
-  <si>
-    <t>2011-02-08T00:00:00UTC</t>
-  </si>
-  <si>
-    <t>2008-02-15T00:00:00UTC</t>
-  </si>
-  <si>
-    <t>2015-06-04T23:37:25UTC</t>
-  </si>
-  <si>
-    <t>2019-01-09T19:39:00UTC</t>
-  </si>
-  <si>
-    <t>2012-03-22T00:00:00UTC</t>
-  </si>
-  <si>
-    <t>2015-10-01T00:00:00UTC</t>
-  </si>
-  <si>
-    <t>2018-11-15T19:08:00UTC</t>
-  </si>
-  <si>
-    <t>2019-04-04T21:00:55UTC</t>
-  </si>
-  <si>
-    <t>2019-03-07T13:38:00UTC</t>
-  </si>
-  <si>
-    <t>2008-02-01T00:00:00UTC</t>
-  </si>
-  <si>
-    <t>2015-03-23T12:05:07UTC</t>
-  </si>
-  <si>
-    <t>2016-01-12T00:00:00UTC</t>
-  </si>
-  <si>
-    <t>2018-03-27T14:08:57UTC</t>
-  </si>
-  <si>
-    <t>2020-03-10T20:16:04UTC</t>
-  </si>
-  <si>
-    <t>2018-09-27T16:54:00UTC</t>
-  </si>
-  <si>
-    <t>2020-03-04T15:58:39UTC</t>
-  </si>
-  <si>
-    <t>2016-01-25T08:00:21UTC</t>
-  </si>
-  <si>
-    <t>2012-08-10T09:00:00UTC</t>
-  </si>
-  <si>
-    <t>2007-12-26T00:00:00UTC</t>
-  </si>
-  <si>
-    <t>2008-11-06T00:00:00UTC</t>
-  </si>
-  <si>
-    <t>2015-03-25T00:00:00UTC</t>
-  </si>
-  <si>
-    <t>2014-03-26T14:53:41UTC</t>
-  </si>
-  <si>
-    <t>2012-11-28T00:00:00UTC</t>
-  </si>
-  <si>
-    <t>2019-02-26T05:14:33UTC</t>
-  </si>
-  <si>
-    <t>2020-03-04T11:07:00UTC</t>
-  </si>
-  <si>
-    <t>2013-04-13T00:00:00UTC</t>
-  </si>
-  <si>
-    <t>2015-01-13T07:00:00UTC</t>
-  </si>
-  <si>
-    <t>2020-03-02T04:11:01UTC</t>
-  </si>
-  <si>
-    <t>2005-04-07T20:25:00UTC</t>
-  </si>
-  <si>
-    <t>2005-03-16T00:00:00UTC</t>
-  </si>
-  <si>
-    <t>2013-03-27T00:00:00UTC</t>
-  </si>
-  <si>
-    <t>2014-03-31T13:27:23UTC</t>
-  </si>
-  <si>
-    <t>2014-03-31T04:03:28UTC</t>
-  </si>
-  <si>
-    <t>2017-02-09T08:29:02UTC</t>
-  </si>
-  <si>
-    <t>2013-10-25T13:41:43UTC</t>
-  </si>
-  <si>
-    <t>2014-09-07T00:00:00UTC</t>
-  </si>
-  <si>
-    <t>2018-09-12T19:46:00UTC</t>
-  </si>
-  <si>
-    <t>2004-01-29T08:32:02UTC</t>
-  </si>
-  <si>
-    <t>2019-03-30T00:00:00UTC</t>
-  </si>
-  <si>
-    <t>2018-11-21T17:59:00UTC</t>
-  </si>
-  <si>
-    <t>2015-11-27T00:00:00UTC</t>
-  </si>
-  <si>
-    <t>2020-03-10T17:04:38UTC</t>
-  </si>
-  <si>
-    <t>2016-03-05T00:00:00UTC</t>
-  </si>
-  <si>
     <t>1-01-01T00:00:00UTC</t>
   </si>
   <si>
@@ -397,175 +397,181 @@
     <t>day_31_beyond</t>
   </si>
   <si>
+    <t>https://www.hollywoodreporter.com/news/coronavirus-miamis-ultra-music-festival-postponed-2021-1282603</t>
+  </si>
+  <si>
+    <t>http://www.youredm.com/2017/03/26/ultra-worldwide-expands-umf-australia-coming-2018/</t>
+  </si>
+  <si>
+    <t>http://www.billboard.com/biz/articles/news/branding/1084202/exclusive-ultra-music-ultra-music-festival-announce-global</t>
+  </si>
+  <si>
+    <t>https://djawards.com/editions/2008-11th-edition/</t>
+  </si>
+  <si>
+    <t>http://www.miamiherald.com/news/local/community/miami-dade/article16316579.html</t>
+  </si>
+  <si>
+    <t>http://edmmaniac.com/armin-van-buuren-debuts-gaia-at-ultra-music-festival-with-live-set/</t>
+  </si>
+  <si>
+    <t>http://www.complex.com/music/2014/03/ultra-music-festival-2015-dates</t>
+  </si>
+  <si>
+    <t>http://www.residentadvisor.net/news.aspx?id=4583</t>
+  </si>
+  <si>
+    <t>http://www.complex.com/music/2013/10/ultra-japan-ultra-south-africa-announcement</t>
+  </si>
+  <si>
+    <t>http://www.miamiallaround.com/ultra-music-festival-miami/</t>
+  </si>
+  <si>
+    <t>http://www.straitstimes.com/lifestyle/entertainment/ultra-singapore-to-take-place-on-sept-10-and-11-venue-and-line-up-yet-to-be</t>
+  </si>
+  <si>
+    <t>https://www.miamiherald.com/news/local/community/miami-dade/downtown-miami/article231681208.html</t>
+  </si>
+  <si>
+    <t>https://www.miamiherald.com/news/local/community/miami-dade/downtown-miami/article240878956.html</t>
+  </si>
+  <si>
+    <t>http://www.huffingtonpost.com/farryn-weiner/150000-fans-descend-miami-ultra-music-festival_b_843660.html#s260527</t>
+  </si>
+  <si>
+    <t>http://www.thepalmettopanther.com/ultra-music-festival-brings-techno-to-miami/</t>
+  </si>
+  <si>
     <t>http://www.axs.com/how-miami-s-ultra-music-festival-became-a-worldwide-phenomenon-45274</t>
   </si>
   <si>
+    <t>http://www.residentadvisor.net/news.aspx?id=7549</t>
+  </si>
+  <si>
+    <t>http://www.dancingastronaut.com/2017/02/ultra-music-festival-announces-2017-lineup/</t>
+  </si>
+  <si>
+    <t>https://weraveyou.com/2018/03/international-dance-music-awards-idma-presents-2018-winners/</t>
+  </si>
+  <si>
+    <t>http://getinpr.com/news/ultra-music-festival-announces-exclusive-flas</t>
+  </si>
+  <si>
+    <t>https://www.miamiherald.com/news/local/community/miami-dade/downtown-miami/article219114005.html</t>
+  </si>
+  <si>
+    <t>http://www.edmtunes.com/2016/01/ultra-music-festival-2016-is-sold-out/</t>
+  </si>
+  <si>
+    <t>http://elitedaily.com/music/music-news/15-ultra-music-festival/</t>
+  </si>
+  <si>
+    <t>https://web.archive.org/web/20160919123145/http://depauliaonline.com/2011/04/04/miamis-ultra-music-festival-sets-record-attendance/</t>
+  </si>
+  <si>
+    <t>http://www.msopr.com/client-roster/ultra-music-festival-2013-concludes-with-most-successful-year-yet-330000-fans-and-10000000-online-views/</t>
+  </si>
+  <si>
+    <t>https://www.miamiherald.com/news/local/community/miami-dade/key-biscayne/article224071735.html</t>
+  </si>
+  <si>
+    <t>https://www.nbcmiami.com/news/local/Latin-Music-Stars-Shine-at-Ultra-Music-Festival-2018-478075273.html</t>
+  </si>
+  <si>
+    <t>https://www.theverge.com/2015/3/23/8277547/the-ultra-music-festival-will-be-broadcast-live-on-twitch</t>
+  </si>
+  <si>
+    <t>https://www.miamiherald.com/news/local/community/miami-dade/downtown-miami/article218284625.html</t>
+  </si>
+  <si>
+    <t>http://www.local10.com/news/local/miami/security-guard-seriously-injured-after-crowd-storms-fence-at-ultra-fest</t>
+  </si>
+  <si>
+    <t>https://www.youredm.com/2019/04/04/ultra-music-festival-2019-was-confusing-spectacular-in-every-way-review/</t>
+  </si>
+  <si>
+    <t>https://www.miamiherald.com/news/local/community/miami-dade/article221649275.html</t>
+  </si>
+  <si>
+    <t>https://thump2.vice.com/en_us/article/deadmau5-to-fill-in-for-the-prodigy-after-the-groups-cancellation-of-their-ultra-music-festival-set</t>
+  </si>
+  <si>
+    <t>http://createdigitalmusic.com/2005/03/wmc-ultra-music-festival-2005-lineup/</t>
+  </si>
+  <si>
+    <t>https://www.miamiherald.com/news/local/community/miami-dade/article227234394.html</t>
+  </si>
+  <si>
+    <t>http://www.msopr.com/press-releases/ultra-music-festival-the-bravery-eric-prydz-junkie-xl-union-jack-with-first-performance-in-seven-years-vjv2-and-the-veez/</t>
+  </si>
+  <si>
+    <t>https://www.local10.com/news/local/miami/ultra-organizers-vow-to-avoid-opening-night-s-nightmarish-exodus</t>
+  </si>
+  <si>
+    <t>https://www.miamiherald.com/news/local/environment/article221964565.html</t>
+  </si>
+  <si>
+    <t>http://www.jazzhostels.com/blog/26-miamis-ultra-music-festival-2008/</t>
+  </si>
+  <si>
+    <t>http://www.msopr.com/press-releases/ultra-music-festival-celebrates-its-10-year-anniversary-with-all-star-electronic-artist-line-up/</t>
+  </si>
+  <si>
+    <t>http://www.complex.com/music/2014/03/10-things-didnt-know-ultra-music-festival/</t>
+  </si>
+  <si>
+    <t>http://popcrush.com/deadmau5-martin-garrix-feud-twitter/</t>
+  </si>
+  <si>
+    <t>https://www.youredm.com/2020/03/10/ultra-music-festival-2020-value-package/</t>
+  </si>
+  <si>
+    <t>http://www.revolutionradiomiami.com/1773-2/</t>
+  </si>
+  <si>
+    <t>https://www.axs.com/the-ultra-music-festival-transportation-guide-45219</t>
+  </si>
+  <si>
+    <t>https://www.decodedmagazine.com/the-33rd-annual-international-dance-music-awards-idma-announces-nominees/</t>
+  </si>
+  <si>
+    <t>https://nypost.com/2020/03/02/florida-declares-public-health-emergency-after-two-coronavirus-cases/</t>
+  </si>
+  <si>
+    <t>https://www.forbes.com/sites/darrenheitner/2013/04/13/ultra-music-festival-smashing-records-and-global-expansion/</t>
+  </si>
+  <si>
+    <t>https://www.residentadvisor.net/features/564</t>
+  </si>
+  <si>
+    <t>http://articles.sun-sentinel.com/2012-03-22/entertainment/sfl-ultra-music-festival-takes-over-miami-20120322_1_ultra-music-festival-ultramusicfestival-com-boys-noize</t>
+  </si>
+  <si>
     <t>https://www.edmsauce.com/2017/03/24/ultra-music-festival-india/</t>
   </si>
   <si>
-    <t>http://www.straitstimes.com/lifestyle/entertainment/ultra-singapore-to-take-place-on-sept-10-and-11-venue-and-line-up-yet-to-be</t>
-  </si>
-  <si>
-    <t>http://elitedaily.com/music/music-news/15-ultra-music-festival/</t>
-  </si>
-  <si>
-    <t>http://popcrush.com/deadmau5-martin-garrix-feud-twitter/</t>
-  </si>
-  <si>
-    <t>http://www.youredm.com/2017/03/26/ultra-worldwide-expands-umf-australia-coming-2018/</t>
+    <t>https://variety.com/2020/biz/news/ultra-music-festival-no-refunds-1203529247/</t>
+  </si>
+  <si>
+    <t>http://www.msopr.com/client-roster/ultra-worldwide-announces-ultra-europe-july-12-14-2013-in-croatia/</t>
+  </si>
+  <si>
+    <t>http://www.emusician.com/artists/1333/ultra-music-festival-announces-2015-aftermovie-2016-ticket-options/54296</t>
+  </si>
+  <si>
+    <t>http://www.axs.com/news/ultra-worldwide-takes-over-south-america-19610</t>
+  </si>
+  <si>
+    <t>http://www.miamiherald.com/news/local/obituaries/article6352869.html</t>
   </si>
   <si>
     <t>https://www.festicket.com/magazine/news/festicket-awards-2016-winners-tomorrowland-martin-garrix-radiohead-and-more/</t>
   </si>
   <si>
-    <t>https://weraveyou.com/2018/03/international-dance-music-awards-idma-presents-2018-winners/</t>
-  </si>
-  <si>
-    <t>http://www.huffingtonpost.com/farryn-weiner/150000-fans-descend-miami-ultra-music-festival_b_843660.html#s260527</t>
-  </si>
-  <si>
-    <t>https://www.miamiherald.com/news/local/community/miami-dade/downtown-miami/article231681208.html</t>
-  </si>
-  <si>
-    <t>https://www.axs.com/the-ultra-music-festival-transportation-guide-45219</t>
-  </si>
-  <si>
-    <t>http://www.residentadvisor.net/news.aspx?id=7549</t>
-  </si>
-  <si>
-    <t>https://web.archive.org/web/20160919123145/http://depauliaonline.com/2011/04/04/miamis-ultra-music-festival-sets-record-attendance/</t>
-  </si>
-  <si>
-    <t>https://thump2.vice.com/en_us/article/deadmau5-to-fill-in-for-the-prodigy-after-the-groups-cancellation-of-their-ultra-music-festival-set</t>
-  </si>
-  <si>
-    <t>http://www.thepalmettopanther.com/ultra-music-festival-brings-techno-to-miami/</t>
-  </si>
-  <si>
-    <t>http://www.msopr.com/press-releases/ultra-music-festival-the-bravery-eric-prydz-junkie-xl-union-jack-with-first-performance-in-seven-years-vjv2-and-the-veez/</t>
-  </si>
-  <si>
-    <t>http://www.miamiallaround.com/ultra-music-festival-miami/</t>
-  </si>
-  <si>
-    <t>https://www.miamiherald.com/news/local/community/miami-dade/key-biscayne/article224071735.html</t>
-  </si>
-  <si>
-    <t>http://articles.sun-sentinel.com/2012-03-22/entertainment/sfl-ultra-music-festival-takes-over-miami-20120322_1_ultra-music-festival-ultramusicfestival-com-boys-noize</t>
-  </si>
-  <si>
-    <t>http://www.emusician.com/artists/1333/ultra-music-festival-announces-2015-aftermovie-2016-ticket-options/54296</t>
-  </si>
-  <si>
-    <t>https://www.miamiherald.com/news/local/community/miami-dade/article221649275.html</t>
-  </si>
-  <si>
-    <t>https://www.youredm.com/2019/04/04/ultra-music-festival-2019-was-confusing-spectacular-in-every-way-review/</t>
-  </si>
-  <si>
-    <t>https://www.miamiherald.com/news/local/community/miami-dade/article227234394.html</t>
-  </si>
-  <si>
-    <t>http://www.msopr.com/press-releases/ultra-music-festival-celebrates-its-10-year-anniversary-with-all-star-electronic-artist-line-up/</t>
-  </si>
-  <si>
-    <t>https://www.theverge.com/2015/3/23/8277547/the-ultra-music-festival-will-be-broadcast-live-on-twitch</t>
-  </si>
-  <si>
-    <t>http://www.edmtunes.com/2016/01/ultra-music-festival-2016-is-sold-out/</t>
-  </si>
-  <si>
-    <t>https://www.nbcmiami.com/news/local/Latin-Music-Stars-Shine-at-Ultra-Music-Festival-2018-478075273.html</t>
-  </si>
-  <si>
-    <t>https://variety.com/2020/biz/news/ultra-music-festival-no-refunds-1203529247/</t>
-  </si>
-  <si>
-    <t>https://www.miamiherald.com/news/local/community/miami-dade/downtown-miami/article219114005.html</t>
-  </si>
-  <si>
-    <t>https://www.hollywoodreporter.com/news/coronavirus-miamis-ultra-music-festival-postponed-2021-1282603</t>
-  </si>
-  <si>
-    <t>http://www.revolutionradiomiami.com/1773-2/</t>
-  </si>
-  <si>
-    <t>http://www.billboard.com/biz/articles/news/branding/1084202/exclusive-ultra-music-ultra-music-festival-announce-global</t>
-  </si>
-  <si>
-    <t>http://www.jazzhostels.com/blog/26-miamis-ultra-music-festival-2008/</t>
-  </si>
-  <si>
-    <t>https://djawards.com/editions/2008-11th-edition/</t>
-  </si>
-  <si>
-    <t>http://www.miamiherald.com/news/local/community/miami-dade/article16316579.html</t>
-  </si>
-  <si>
-    <t>http://www.complex.com/music/2014/03/10-things-didnt-know-ultra-music-festival/</t>
-  </si>
-  <si>
-    <t>http://www.msopr.com/client-roster/ultra-worldwide-announces-ultra-europe-july-12-14-2013-in-croatia/</t>
-  </si>
-  <si>
-    <t>https://www.decodedmagazine.com/the-33rd-annual-international-dance-music-awards-idma-announces-nominees/</t>
-  </si>
-  <si>
-    <t>https://www.miamiherald.com/news/local/community/miami-dade/downtown-miami/article240878956.html</t>
-  </si>
-  <si>
-    <t>https://www.forbes.com/sites/darrenheitner/2013/04/13/ultra-music-festival-smashing-records-and-global-expansion/</t>
-  </si>
-  <si>
-    <t>http://www.miamiherald.com/news/local/obituaries/article6352869.html</t>
-  </si>
-  <si>
-    <t>https://nypost.com/2020/03/02/florida-declares-public-health-emergency-after-two-coronavirus-cases/</t>
-  </si>
-  <si>
-    <t>https://www.residentadvisor.net/features/564</t>
-  </si>
-  <si>
-    <t>http://createdigitalmusic.com/2005/03/wmc-ultra-music-festival-2005-lineup/</t>
-  </si>
-  <si>
-    <t>http://www.msopr.com/client-roster/ultra-music-festival-2013-concludes-with-most-successful-year-yet-330000-fans-and-10000000-online-views/</t>
-  </si>
-  <si>
-    <t>http://www.complex.com/music/2014/03/ultra-music-festival-2015-dates</t>
-  </si>
-  <si>
-    <t>http://edmmaniac.com/armin-van-buuren-debuts-gaia-at-ultra-music-festival-with-live-set/</t>
-  </si>
-  <si>
-    <t>http://www.dancingastronaut.com/2017/02/ultra-music-festival-announces-2017-lineup/</t>
-  </si>
-  <si>
-    <t>http://www.complex.com/music/2013/10/ultra-japan-ultra-south-africa-announcement</t>
-  </si>
-  <si>
-    <t>http://www.axs.com/news/ultra-worldwide-takes-over-south-america-19610</t>
-  </si>
-  <si>
-    <t>https://www.miamiherald.com/news/local/community/miami-dade/downtown-miami/article218284625.html</t>
-  </si>
-  <si>
-    <t>http://www.residentadvisor.net/news.aspx?id=4583</t>
-  </si>
-  <si>
-    <t>https://www.local10.com/news/local/miami/ultra-organizers-vow-to-avoid-opening-night-s-nightmarish-exodus</t>
-  </si>
-  <si>
-    <t>https://www.miamiherald.com/news/local/environment/article221964565.html</t>
-  </si>
-  <si>
-    <t>http://www.local10.com/news/local/miami/security-guard-seriously-injured-after-crowd-storms-fence-at-ultra-fest</t>
-  </si>
-  <si>
-    <t>https://www.youredm.com/2020/03/10/ultra-music-festival-2020-value-package/</t>
-  </si>
-  <si>
-    <t>http://getinpr.com/news/ultra-music-festival-announces-exclusive-flas</t>
+    <t>http://www.astateoftrance.com/news/the-a-state-of-trance-500-line-up-is-now-complete/</t>
+  </si>
+  <si>
+    <t>https://ultramusicfestival.com/worldwide/ultra-music-festival-announces-relocation-to-virginia-key-as-new-home/</t>
   </si>
   <si>
     <t>http://creatorentertainment.com/artists/live-performers/vj-cozer/</t>
@@ -577,13 +583,7 @@
     <t>https://wintermusicconference.com/idma/</t>
   </si>
   <si>
-    <t>http://www.astateoftrance.com/news/the-a-state-of-trance-500-line-up-is-now-complete/</t>
-  </si>
-  <si>
     <t>https://web.archive.org/web/20160624084530/http://www.miamiandbeaches.com/event/ultra-music-festival/20931</t>
-  </si>
-  <si>
-    <t>https://ultramusicfestival.com/worldwide/ultra-music-festival-announces-relocation-to-virginia-key-as-new-home/</t>
   </si>
 </sst>
 </file>
@@ -985,7 +985,7 @@
         <v>68</v>
       </c>
       <c r="C2">
-        <v>5838</v>
+        <v>7662</v>
       </c>
       <c r="D2" t="s">
         <v>126</v>
@@ -1002,7 +1002,7 @@
         <v>69</v>
       </c>
       <c r="C3">
-        <v>6586</v>
+        <v>6588</v>
       </c>
       <c r="D3" t="s">
         <v>126</v>
@@ -1019,7 +1019,7 @@
         <v>70</v>
       </c>
       <c r="C4">
-        <v>6151</v>
+        <v>4899</v>
       </c>
       <c r="D4" t="s">
         <v>126</v>
@@ -1036,7 +1036,7 @@
         <v>71</v>
       </c>
       <c r="C5">
-        <v>5115</v>
+        <v>3526</v>
       </c>
       <c r="D5" t="s">
         <v>126</v>
@@ -1053,7 +1053,7 @@
         <v>72</v>
       </c>
       <c r="C6">
-        <v>5496</v>
+        <v>5856</v>
       </c>
       <c r="D6" t="s">
         <v>126</v>
@@ -1070,7 +1070,7 @@
         <v>73</v>
       </c>
       <c r="C7">
-        <v>6588</v>
+        <v>5497</v>
       </c>
       <c r="D7" t="s">
         <v>126</v>
@@ -1087,7 +1087,7 @@
         <v>74</v>
       </c>
       <c r="C8">
-        <v>6502</v>
+        <v>5497</v>
       </c>
       <c r="D8" t="s">
         <v>126</v>
@@ -1104,7 +1104,7 @@
         <v>75</v>
       </c>
       <c r="C9">
-        <v>6949</v>
+        <v>1783</v>
       </c>
       <c r="D9" t="s">
         <v>126</v>
@@ -1121,7 +1121,7 @@
         <v>76</v>
       </c>
       <c r="C10">
-        <v>4402</v>
+        <v>5340</v>
       </c>
       <c r="D10" t="s">
         <v>126</v>
@@ -1138,7 +1138,7 @@
         <v>77</v>
       </c>
       <c r="C11">
-        <v>7403</v>
+        <v>5927</v>
       </c>
       <c r="D11" t="s">
         <v>126</v>
@@ -1152,10 +1152,10 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="C12">
-        <v>5838</v>
+        <v>6151</v>
       </c>
       <c r="D12" t="s">
         <v>126</v>
@@ -1169,10 +1169,10 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C13">
-        <v>2516</v>
+        <v>7403</v>
       </c>
       <c r="D13" t="s">
         <v>126</v>
@@ -1186,10 +1186,10 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C14">
-        <v>4405</v>
+        <v>7662</v>
       </c>
       <c r="D14" t="s">
         <v>126</v>
@@ -1203,10 +1203,10 @@
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C15">
-        <v>6216</v>
+        <v>4402</v>
       </c>
       <c r="D15" t="s">
         <v>126</v>
@@ -1220,7 +1220,7 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C16">
         <v>4350</v>
@@ -1237,10 +1237,10 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C17">
-        <v>3261</v>
+        <v>5838</v>
       </c>
       <c r="D17" t="s">
         <v>126</v>
@@ -1254,10 +1254,10 @@
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C18">
-        <v>5927</v>
+        <v>2516</v>
       </c>
       <c r="D18" t="s">
         <v>126</v>
@@ -1271,10 +1271,10 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C19">
-        <v>7242</v>
+        <v>6543</v>
       </c>
       <c r="D19" t="s">
         <v>126</v>
@@ -1288,10 +1288,10 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C20">
-        <v>4758</v>
+        <v>6949</v>
       </c>
       <c r="D20" t="s">
         <v>126</v>
@@ -1305,10 +1305,10 @@
         <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C21">
-        <v>6046</v>
+        <v>6202</v>
       </c>
       <c r="D21" t="s">
         <v>126</v>
@@ -1322,10 +1322,10 @@
         <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C22">
-        <v>7187</v>
+        <v>7138</v>
       </c>
       <c r="D22" t="s">
         <v>126</v>
@@ -1339,10 +1339,10 @@
         <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C23">
-        <v>7327</v>
+        <v>6149</v>
       </c>
       <c r="D23" t="s">
         <v>126</v>
@@ -1356,10 +1356,10 @@
         <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C24">
-        <v>7299</v>
+        <v>5115</v>
       </c>
       <c r="D24" t="s">
         <v>126</v>
@@ -1373,10 +1373,10 @@
         <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C25">
-        <v>3247</v>
+        <v>4405</v>
       </c>
       <c r="D25" t="s">
         <v>126</v>
@@ -1390,10 +1390,10 @@
         <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C26">
-        <v>5854</v>
+        <v>5128</v>
       </c>
       <c r="D26" t="s">
         <v>126</v>
@@ -1407,10 +1407,10 @@
         <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C27">
-        <v>6149</v>
+        <v>7242</v>
       </c>
       <c r="D27" t="s">
         <v>126</v>
@@ -1424,7 +1424,7 @@
         <v>31</v>
       </c>
       <c r="B28" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C28">
         <v>6954</v>
@@ -1441,10 +1441,10 @@
         <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C29">
-        <v>7668</v>
+        <v>5854</v>
       </c>
       <c r="D29" t="s">
         <v>126</v>
@@ -1458,10 +1458,10 @@
         <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C30">
-        <v>7138</v>
+        <v>7123</v>
       </c>
       <c r="D30" t="s">
         <v>126</v>
@@ -1475,10 +1475,10 @@
         <v>34</v>
       </c>
       <c r="B31" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C31">
-        <v>7662</v>
+        <v>6103</v>
       </c>
       <c r="D31" t="s">
         <v>126</v>
@@ -1492,10 +1492,10 @@
         <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C32">
-        <v>6162</v>
+        <v>7327</v>
       </c>
       <c r="D32" t="s">
         <v>126</v>
@@ -1509,10 +1509,10 @@
         <v>36</v>
       </c>
       <c r="B33" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C33">
-        <v>4899</v>
+        <v>7187</v>
       </c>
       <c r="D33" t="s">
         <v>126</v>
@@ -1526,10 +1526,10 @@
         <v>37</v>
       </c>
       <c r="B34" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C34">
-        <v>3210</v>
+        <v>6216</v>
       </c>
       <c r="D34" t="s">
         <v>126</v>
@@ -1543,10 +1543,10 @@
         <v>38</v>
       </c>
       <c r="B35" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C35">
-        <v>3526</v>
+        <v>2195</v>
       </c>
       <c r="D35" t="s">
         <v>126</v>
@@ -1560,10 +1560,10 @@
         <v>39</v>
       </c>
       <c r="B36" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C36">
-        <v>5856</v>
+        <v>7299</v>
       </c>
       <c r="D36" t="s">
         <v>126</v>
@@ -1577,10 +1577,10 @@
         <v>40</v>
       </c>
       <c r="B37" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C37">
-        <v>5492</v>
+        <v>3261</v>
       </c>
       <c r="D37" t="s">
         <v>126</v>
@@ -1594,10 +1594,10 @@
         <v>41</v>
       </c>
       <c r="B38" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C38">
-        <v>5009</v>
+        <v>7322</v>
       </c>
       <c r="D38" t="s">
         <v>126</v>
@@ -1611,10 +1611,10 @@
         <v>42</v>
       </c>
       <c r="B39" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C39">
-        <v>7290</v>
+        <v>7193</v>
       </c>
       <c r="D39" t="s">
         <v>126</v>
@@ -1628,10 +1628,10 @@
         <v>43</v>
       </c>
       <c r="B40" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C40">
-        <v>7662</v>
+        <v>3210</v>
       </c>
       <c r="D40" t="s">
         <v>126</v>
@@ -1645,10 +1645,10 @@
         <v>44</v>
       </c>
       <c r="B41" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C41">
-        <v>5145</v>
+        <v>3247</v>
       </c>
       <c r="D41" t="s">
         <v>126</v>
@@ -1662,10 +1662,10 @@
         <v>45</v>
       </c>
       <c r="B42" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C42">
-        <v>5785</v>
+        <v>5492</v>
       </c>
       <c r="D42" t="s">
         <v>126</v>
@@ -1679,10 +1679,10 @@
         <v>46</v>
       </c>
       <c r="B43" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C43">
-        <v>7660</v>
+        <v>5496</v>
       </c>
       <c r="D43" t="s">
         <v>126</v>
@@ -1696,10 +1696,10 @@
         <v>47</v>
       </c>
       <c r="B44" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C44">
-        <v>2217</v>
+        <v>7668</v>
       </c>
       <c r="D44" t="s">
         <v>126</v>
@@ -1713,10 +1713,10 @@
         <v>48</v>
       </c>
       <c r="B45" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C45">
-        <v>2195</v>
+        <v>6162</v>
       </c>
       <c r="D45" t="s">
         <v>126</v>
@@ -1730,10 +1730,10 @@
         <v>49</v>
       </c>
       <c r="B46" t="s">
-        <v>111</v>
+        <v>83</v>
       </c>
       <c r="C46">
-        <v>5128</v>
+        <v>5838</v>
       </c>
       <c r="D46" t="s">
         <v>126</v>
@@ -1750,7 +1750,7 @@
         <v>112</v>
       </c>
       <c r="C47">
-        <v>5497</v>
+        <v>7290</v>
       </c>
       <c r="D47" t="s">
         <v>126</v>
@@ -1767,7 +1767,7 @@
         <v>113</v>
       </c>
       <c r="C48">
-        <v>5497</v>
+        <v>7660</v>
       </c>
       <c r="D48" t="s">
         <v>126</v>
@@ -1784,7 +1784,7 @@
         <v>114</v>
       </c>
       <c r="C49">
-        <v>6543</v>
+        <v>5145</v>
       </c>
       <c r="D49" t="s">
         <v>126</v>
@@ -1801,7 +1801,7 @@
         <v>115</v>
       </c>
       <c r="C50">
-        <v>5340</v>
+        <v>2217</v>
       </c>
       <c r="D50" t="s">
         <v>126</v>
@@ -1818,7 +1818,7 @@
         <v>116</v>
       </c>
       <c r="C51">
-        <v>5657</v>
+        <v>4758</v>
       </c>
       <c r="D51" t="s">
         <v>126</v>
@@ -1835,7 +1835,7 @@
         <v>117</v>
       </c>
       <c r="C52">
-        <v>7123</v>
+        <v>6586</v>
       </c>
       <c r="D52" t="s">
         <v>126</v>
@@ -1852,7 +1852,7 @@
         <v>118</v>
       </c>
       <c r="C53">
-        <v>1783</v>
+        <v>7668</v>
       </c>
       <c r="D53" t="s">
         <v>126</v>
@@ -1869,7 +1869,7 @@
         <v>119</v>
       </c>
       <c r="C54">
-        <v>7322</v>
+        <v>5009</v>
       </c>
       <c r="D54" t="s">
         <v>126</v>
@@ -1886,7 +1886,7 @@
         <v>120</v>
       </c>
       <c r="C55">
-        <v>7193</v>
+        <v>6046</v>
       </c>
       <c r="D55" t="s">
         <v>126</v>
@@ -1903,7 +1903,7 @@
         <v>121</v>
       </c>
       <c r="C56">
-        <v>6103</v>
+        <v>5657</v>
       </c>
       <c r="D56" t="s">
         <v>126</v>
@@ -1920,7 +1920,7 @@
         <v>122</v>
       </c>
       <c r="C57">
-        <v>7668</v>
+        <v>5785</v>
       </c>
       <c r="D57" t="s">
         <v>126</v>
@@ -1937,7 +1937,7 @@
         <v>123</v>
       </c>
       <c r="C58">
-        <v>6202</v>
+        <v>6502</v>
       </c>
       <c r="D58" t="s">
         <v>126</v>
@@ -2058,12 +2058,12 @@
     <hyperlink ref="E7" r:id="rId6"/>
     <hyperlink ref="E8" r:id="rId7"/>
     <hyperlink ref="E9" r:id="rId8"/>
-    <hyperlink ref="E10" r:id="rId9" location="s260527"/>
+    <hyperlink ref="E10" r:id="rId9"/>
     <hyperlink ref="E11" r:id="rId10"/>
     <hyperlink ref="E12" r:id="rId11"/>
     <hyperlink ref="E13" r:id="rId12"/>
     <hyperlink ref="E14" r:id="rId13"/>
-    <hyperlink ref="E15" r:id="rId14"/>
+    <hyperlink ref="E15" r:id="rId14" location="s260527"/>
     <hyperlink ref="E16" r:id="rId15"/>
     <hyperlink ref="E17" r:id="rId16"/>
     <hyperlink ref="E18" r:id="rId17"/>
